--- a/Code/Overview_Studies.xlsx
+++ b/Code/Overview_Studies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f2d186216cf91ab/Bidlung/University/M.S. Leiden University/M.S. Neuroscience (Research)/Internship Groningen/GitHub_Multiverse_meta/MetaAnalysis-Psilo-Cognition/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="685" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8595A5E5-5D1A-4BBD-B20E-D4613EF745D7}"/>
+  <xr:revisionPtr revIDLastSave="686" documentId="13_ncr:1_{525082E2-B509-430B-A115-E19A7741069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D874CF13-2964-4D91-8DAB-6DCFAEAEB090}"/>
   <bookViews>
     <workbookView xWindow="-11625" yWindow="-20820" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3334,8 +3334,8 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R49" sqref="R49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5862,7 +5862,9 @@
       <c r="R42" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="S42" s="21"/>
+      <c r="S42" s="21">
+        <v>3</v>
+      </c>
       <c r="T42" s="75" t="s">
         <v>255</v>
       </c>
@@ -6278,7 +6280,7 @@
       <c r="T2" s="76"/>
       <c r="U2" s="76"/>
     </row>
-    <row r="3" spans="1:22" ht="276" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" ht="290.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="12">
         <v>1</v>
       </c>
